--- a/data/pca/factorExposure/factorExposure_2016-08-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-08-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.008298184939749176</v>
+        <v>-0.01330821877262608</v>
       </c>
       <c r="C2">
-        <v>0.0531535657684731</v>
+        <v>0.04358711183588374</v>
       </c>
       <c r="D2">
-        <v>-0.0349587592836965</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06546277205888866</v>
+      </c>
+      <c r="E2">
+        <v>0.05117850016560899</v>
+      </c>
+      <c r="F2">
+        <v>-0.08120070762336273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.06006095314196024</v>
+        <v>-0.0307510659844762</v>
       </c>
       <c r="C3">
-        <v>0.09055284060623839</v>
+        <v>0.08116577995006666</v>
       </c>
       <c r="D3">
-        <v>-0.08088983479452937</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09233816876326927</v>
+      </c>
+      <c r="E3">
+        <v>0.05924438689253037</v>
+      </c>
+      <c r="F3">
+        <v>-0.01329181417967272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06247693995289922</v>
+        <v>-0.05758568297666874</v>
       </c>
       <c r="C4">
-        <v>0.06061679237294009</v>
+        <v>0.06612844052958668</v>
       </c>
       <c r="D4">
-        <v>-0.02501727932712752</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05950643433660738</v>
+      </c>
+      <c r="E4">
+        <v>0.04951483074859003</v>
+      </c>
+      <c r="F4">
+        <v>-0.08878988658004724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.0384157780576373</v>
+        <v>-0.03520147328292395</v>
       </c>
       <c r="C6">
-        <v>0.03306263281243373</v>
+        <v>0.03171151587182839</v>
       </c>
       <c r="D6">
-        <v>-0.03057554440366508</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06866696872220483</v>
+      </c>
+      <c r="E6">
+        <v>0.05744362178787719</v>
+      </c>
+      <c r="F6">
+        <v>-0.07118745630465306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.019720575802522</v>
+        <v>-0.01928107479146106</v>
       </c>
       <c r="C7">
-        <v>0.04027138083247923</v>
+        <v>0.03804234647025336</v>
       </c>
       <c r="D7">
-        <v>0.004951716337218166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03757267024313893</v>
+      </c>
+      <c r="E7">
+        <v>0.03099853424614786</v>
+      </c>
+      <c r="F7">
+        <v>-0.1081554958590786</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.001898365293243659</v>
+        <v>-0.003540755103100863</v>
       </c>
       <c r="C8">
-        <v>0.02383656717752096</v>
+        <v>0.02809459038317069</v>
       </c>
       <c r="D8">
-        <v>-0.03344617246249778</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03623643625124737</v>
+      </c>
+      <c r="E8">
+        <v>0.04120658558273745</v>
+      </c>
+      <c r="F8">
+        <v>-0.05048610443169788</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03333305848073907</v>
+        <v>-0.03633863395475179</v>
       </c>
       <c r="C9">
-        <v>0.04479533932485172</v>
+        <v>0.05258812742443416</v>
       </c>
       <c r="D9">
-        <v>-0.01394976002477528</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04506058108773127</v>
+      </c>
+      <c r="E9">
+        <v>0.04218478449586256</v>
+      </c>
+      <c r="F9">
+        <v>-0.09221800645297609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.06954890506241933</v>
+        <v>-0.09966098152218823</v>
       </c>
       <c r="C10">
-        <v>-0.1940412475815135</v>
+        <v>-0.1940282172992872</v>
       </c>
       <c r="D10">
-        <v>-0.004387021180569379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0004594251732136067</v>
+      </c>
+      <c r="E10">
+        <v>0.04663516170428989</v>
+      </c>
+      <c r="F10">
+        <v>-0.04072503983157594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03852820517074418</v>
+        <v>-0.03610668636950005</v>
       </c>
       <c r="C11">
-        <v>0.05554600417604666</v>
+        <v>0.05151711902482564</v>
       </c>
       <c r="D11">
-        <v>-0.007833760161607282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03426589093749755</v>
+      </c>
+      <c r="E11">
+        <v>0.005052812912075968</v>
+      </c>
+      <c r="F11">
+        <v>-0.06649940543455032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03507732027439706</v>
+        <v>-0.03681724971252245</v>
       </c>
       <c r="C12">
-        <v>0.04669445377570402</v>
+        <v>0.04761568390954602</v>
       </c>
       <c r="D12">
-        <v>-0.002165071783493116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02567122072068552</v>
+      </c>
+      <c r="E12">
+        <v>0.01422960377056665</v>
+      </c>
+      <c r="F12">
+        <v>-0.06950845840617186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01330058084566618</v>
+        <v>-0.01231011429030017</v>
       </c>
       <c r="C13">
-        <v>0.04235811675589511</v>
+        <v>0.04179540028427869</v>
       </c>
       <c r="D13">
-        <v>-0.01760674646240113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06272261479348556</v>
+      </c>
+      <c r="E13">
+        <v>0.0610535866327333</v>
+      </c>
+      <c r="F13">
+        <v>-0.113546397387723</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.006486172129450189</v>
+        <v>-0.005053582436132849</v>
       </c>
       <c r="C14">
-        <v>0.03366859975161863</v>
+        <v>0.03145132299001471</v>
       </c>
       <c r="D14">
-        <v>0.01575956918415103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.027222621106863</v>
+      </c>
+      <c r="E14">
+        <v>0.02654786911636626</v>
+      </c>
+      <c r="F14">
+        <v>-0.09740820792282008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.00112615257676355</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.003162256436552402</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.004384175045075055</v>
+      </c>
+      <c r="E15">
+        <v>-0.000121809024727764</v>
+      </c>
+      <c r="F15">
+        <v>-0.003019448783809963</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0351444751582277</v>
+        <v>-0.03355553825923728</v>
       </c>
       <c r="C16">
-        <v>0.0429840947117297</v>
+        <v>0.04570022061603463</v>
       </c>
       <c r="D16">
-        <v>-0.007167073792176141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02863172692653873</v>
+      </c>
+      <c r="E16">
+        <v>0.01944451816291708</v>
+      </c>
+      <c r="F16">
+        <v>-0.07036037514656092</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02262175803139196</v>
+        <v>-0.01629941694132892</v>
       </c>
       <c r="C19">
-        <v>0.06153356313401445</v>
+        <v>0.05050153726238954</v>
       </c>
       <c r="D19">
-        <v>-0.07129011230923903</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09653074840753027</v>
+      </c>
+      <c r="E19">
+        <v>0.0794093391613484</v>
+      </c>
+      <c r="F19">
+        <v>-0.09151655361840264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01368579954883469</v>
+        <v>-0.01332056739766719</v>
       </c>
       <c r="C20">
-        <v>0.04387191664872608</v>
+        <v>0.0409543920294494</v>
       </c>
       <c r="D20">
-        <v>-0.01806233703477177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04101771236486153</v>
+      </c>
+      <c r="E20">
+        <v>0.05563821641882525</v>
+      </c>
+      <c r="F20">
+        <v>-0.08931577415658336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.009532019876826793</v>
+        <v>-0.008548260493196675</v>
       </c>
       <c r="C21">
-        <v>0.04860474535295152</v>
+        <v>0.04449608352351947</v>
       </c>
       <c r="D21">
-        <v>-0.03558903233401349</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07005684755386027</v>
+      </c>
+      <c r="E21">
+        <v>0.07331476842451554</v>
+      </c>
+      <c r="F21">
+        <v>-0.1345149719645719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001809605262340774</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02277157612003099</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03532714385192679</v>
+      </c>
+      <c r="E22">
+        <v>0.01850316554537882</v>
+      </c>
+      <c r="F22">
+        <v>-0.02231922891686305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001876610936454644</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02289565133677485</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03501990361282051</v>
+      </c>
+      <c r="E23">
+        <v>0.01879260118371543</v>
+      </c>
+      <c r="F23">
+        <v>-0.02219852903165828</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.03052861807736769</v>
+        <v>-0.03309363392330435</v>
       </c>
       <c r="C24">
-        <v>0.04888878192732489</v>
+        <v>0.05350565157276175</v>
       </c>
       <c r="D24">
-        <v>-0.004127067412389225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02717120897536019</v>
+      </c>
+      <c r="E24">
+        <v>0.01686780229415233</v>
+      </c>
+      <c r="F24">
+        <v>-0.07898607561703895</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.0439698907910434</v>
+        <v>-0.04302436146978404</v>
       </c>
       <c r="C25">
-        <v>0.05919888470198559</v>
+        <v>0.05739960039200774</v>
       </c>
       <c r="D25">
-        <v>0.006823332919891795</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02484452242926008</v>
+      </c>
+      <c r="E25">
+        <v>0.01087817374176888</v>
+      </c>
+      <c r="F25">
+        <v>-0.08052685131485861</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01269623950963144</v>
+        <v>-0.01385721881005572</v>
       </c>
       <c r="C26">
-        <v>0.01624037643602137</v>
+        <v>0.01647492024811346</v>
       </c>
       <c r="D26">
-        <v>-0.002281852602889765</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02694364202981961</v>
+      </c>
+      <c r="E26">
+        <v>0.02872100905664903</v>
+      </c>
+      <c r="F26">
+        <v>-0.07443864785593739</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.08362706209152594</v>
+        <v>-0.1343562389945856</v>
       </c>
       <c r="C28">
-        <v>-0.2275878103258767</v>
+        <v>-0.243658203637848</v>
       </c>
       <c r="D28">
-        <v>-0.0003914488123121706</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01554137552893684</v>
+      </c>
+      <c r="E28">
+        <v>0.04773512181525492</v>
+      </c>
+      <c r="F28">
+        <v>-0.05677834269070623</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.008125810554908609</v>
+        <v>-0.005979496921256233</v>
       </c>
       <c r="C29">
-        <v>0.02653149719630352</v>
+        <v>0.02706313376877283</v>
       </c>
       <c r="D29">
-        <v>0.01693922646354803</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02187942256989958</v>
+      </c>
+      <c r="E29">
+        <v>0.02847677666007117</v>
+      </c>
+      <c r="F29">
+        <v>-0.08977623639484468</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05192690334075001</v>
+        <v>-0.0418843607622648</v>
       </c>
       <c r="C30">
-        <v>0.05769121929906819</v>
+        <v>0.06469718592157186</v>
       </c>
       <c r="D30">
-        <v>-0.05441715770052655</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1083027288487967</v>
+      </c>
+      <c r="E30">
+        <v>0.03979401053396222</v>
+      </c>
+      <c r="F30">
+        <v>-0.1047851994553184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05002811114232704</v>
+        <v>-0.05480871629123258</v>
       </c>
       <c r="C31">
-        <v>0.03168477349813516</v>
+        <v>0.05405467628747861</v>
       </c>
       <c r="D31">
-        <v>0.01665142495432675</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0087773086019003</v>
+      </c>
+      <c r="E31">
+        <v>0.04885569100560044</v>
+      </c>
+      <c r="F31">
+        <v>-0.08297601859317573</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.008396106679823195</v>
+        <v>-0.004604798066242456</v>
       </c>
       <c r="C32">
-        <v>0.04396281685357589</v>
+        <v>0.0334757775525371</v>
       </c>
       <c r="D32">
-        <v>-0.0271247398197457</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05047868581452045</v>
+      </c>
+      <c r="E32">
+        <v>0.02278131793107304</v>
+      </c>
+      <c r="F32">
+        <v>-0.07417326199743204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02719589621849094</v>
+        <v>-0.02424841840398779</v>
       </c>
       <c r="C33">
-        <v>0.05966982618737798</v>
+        <v>0.05482025046178672</v>
       </c>
       <c r="D33">
-        <v>-0.03431484015846259</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08116236332170555</v>
+      </c>
+      <c r="E33">
+        <v>0.04962060443783443</v>
+      </c>
+      <c r="F33">
+        <v>-0.1297270378765764</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.04469045651560281</v>
+        <v>-0.04084731187457093</v>
       </c>
       <c r="C34">
-        <v>0.06134081693079201</v>
+        <v>0.06399817476351864</v>
       </c>
       <c r="D34">
-        <v>0.002252298272026886</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03441893745189736</v>
+      </c>
+      <c r="E34">
+        <v>-0.007895705984603998</v>
+      </c>
+      <c r="F34">
+        <v>-0.07701558428508853</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.00830016931743114</v>
+        <v>-0.01283430181801583</v>
       </c>
       <c r="C36">
-        <v>0.01565782767419956</v>
+        <v>0.01254157710866396</v>
       </c>
       <c r="D36">
-        <v>-0.001119395378157249</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02817019957893544</v>
+      </c>
+      <c r="E36">
+        <v>0.03413377850273577</v>
+      </c>
+      <c r="F36">
+        <v>-0.08207717656673667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0275507780149403</v>
+        <v>-0.02437314333717508</v>
       </c>
       <c r="C38">
-        <v>0.02802882964263769</v>
+        <v>0.02459516871802576</v>
       </c>
       <c r="D38">
-        <v>0.001135994473459017</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02635423787792884</v>
+      </c>
+      <c r="E38">
+        <v>0.03284163764343005</v>
+      </c>
+      <c r="F38">
+        <v>-0.06945815002212005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04151051021259852</v>
+        <v>-0.03931016559964089</v>
       </c>
       <c r="C39">
-        <v>0.07115728014959997</v>
+        <v>0.0679355711808222</v>
       </c>
       <c r="D39">
-        <v>-0.02062051777519748</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05310282398975551</v>
+      </c>
+      <c r="E39">
+        <v>0.01850105923728081</v>
+      </c>
+      <c r="F39">
+        <v>-0.09151719715317821</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01563628266339717</v>
+        <v>-0.01576373100287842</v>
       </c>
       <c r="C40">
-        <v>0.03541081633032286</v>
+        <v>0.03987436553644132</v>
       </c>
       <c r="D40">
-        <v>-0.03226466779280319</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03926049396203991</v>
+      </c>
+      <c r="E40">
+        <v>0.06927996549745689</v>
+      </c>
+      <c r="F40">
+        <v>-0.08825113977675665</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.00721853191926817</v>
+        <v>-0.01745127796789228</v>
       </c>
       <c r="C41">
-        <v>0.008644213896039688</v>
+        <v>0.006663699683732317</v>
       </c>
       <c r="D41">
-        <v>0.001869204045677955</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01673108577246822</v>
+      </c>
+      <c r="E41">
+        <v>0.0381590799237649</v>
+      </c>
+      <c r="F41">
+        <v>-0.07070642144592815</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.0009257523090160221</v>
+        <v>-0.0006845033586293046</v>
       </c>
       <c r="C42">
-        <v>0.006370842945995707</v>
+        <v>0.003442656362080492</v>
       </c>
       <c r="D42">
-        <v>-0.006288581981287989</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.000625133644022767</v>
+      </c>
+      <c r="E42">
+        <v>0.005780060341159216</v>
+      </c>
+      <c r="F42">
+        <v>0.00607278169804534</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03151827339710644</v>
+        <v>-0.02865384799885454</v>
       </c>
       <c r="C43">
-        <v>0.02489583836389154</v>
+        <v>0.02169497395171249</v>
       </c>
       <c r="D43">
-        <v>-0.01238548837439052</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04024251117593897</v>
+      </c>
+      <c r="E43">
+        <v>0.04337396372302755</v>
+      </c>
+      <c r="F43">
+        <v>-0.08508988427281269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.01831514923734071</v>
+        <v>-0.0138555235629731</v>
       </c>
       <c r="C44">
-        <v>0.05656535935818853</v>
+        <v>0.05280126348747082</v>
       </c>
       <c r="D44">
-        <v>-0.01418163842061466</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04016648200999298</v>
+      </c>
+      <c r="E44">
+        <v>0.0557690365378162</v>
+      </c>
+      <c r="F44">
+        <v>-0.09018709222956403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.001407067030437639</v>
+        <v>-0.00722698287972521</v>
       </c>
       <c r="C46">
-        <v>0.02391322203683346</v>
+        <v>0.02555657226765826</v>
       </c>
       <c r="D46">
-        <v>0.02120808385871124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01332330164945354</v>
+      </c>
+      <c r="E46">
+        <v>0.03392836692280056</v>
+      </c>
+      <c r="F46">
+        <v>-0.1036174479493049</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.08104546137308506</v>
+        <v>-0.08688680555521359</v>
       </c>
       <c r="C47">
-        <v>0.06884764486937389</v>
+        <v>0.07964029016692896</v>
       </c>
       <c r="D47">
-        <v>0.01344846627765015</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01610531688519946</v>
+      </c>
+      <c r="E47">
+        <v>0.05472859286737014</v>
+      </c>
+      <c r="F47">
+        <v>-0.08017534846092339</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01675548230551487</v>
+        <v>-0.01543589589227928</v>
       </c>
       <c r="C48">
-        <v>0.01280706897985972</v>
+        <v>0.01802257070465504</v>
       </c>
       <c r="D48">
-        <v>0.009161122305835491</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01849955236121897</v>
+      </c>
+      <c r="E48">
+        <v>0.04495628463496622</v>
+      </c>
+      <c r="F48">
+        <v>-0.09637278987242798</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.0852209887688838</v>
+        <v>-0.07124895489675093</v>
       </c>
       <c r="C50">
-        <v>0.06795915852235446</v>
+        <v>0.0709966293630505</v>
       </c>
       <c r="D50">
-        <v>0.02577473007825262</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.00536016648988202</v>
+      </c>
+      <c r="E50">
+        <v>0.05111742111972078</v>
+      </c>
+      <c r="F50">
+        <v>-0.07438112455002437</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01432081291097683</v>
+        <v>-0.01011469753554033</v>
       </c>
       <c r="C51">
-        <v>0.05138747074311804</v>
+        <v>0.03456164550017432</v>
       </c>
       <c r="D51">
-        <v>-0.01145137902681878</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04835813681169618</v>
+      </c>
+      <c r="E51">
+        <v>0.02044002201791356</v>
+      </c>
+      <c r="F51">
+        <v>-0.08419204623177538</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.08338582905394211</v>
+        <v>-0.09318936811935276</v>
       </c>
       <c r="C53">
-        <v>0.06940775744663835</v>
+        <v>0.08665824295051293</v>
       </c>
       <c r="D53">
-        <v>0.03075817617645504</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03824011441108855</v>
+      </c>
+      <c r="E53">
+        <v>0.05220801795732795</v>
+      </c>
+      <c r="F53">
+        <v>-0.09068530665112368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03239725399024062</v>
+        <v>-0.02792292619997567</v>
       </c>
       <c r="C54">
-        <v>0.02174839771900253</v>
+        <v>0.0268687608320128</v>
       </c>
       <c r="D54">
-        <v>-0.0001982785451212995</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03210277180739441</v>
+      </c>
+      <c r="E54">
+        <v>0.04068109494467425</v>
+      </c>
+      <c r="F54">
+        <v>-0.09650919655490611</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07395186417068762</v>
+        <v>-0.08406100083497474</v>
       </c>
       <c r="C55">
-        <v>0.06033339511071256</v>
+        <v>0.07109964326462367</v>
       </c>
       <c r="D55">
-        <v>0.03497864582353565</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04561534996072897</v>
+      </c>
+      <c r="E55">
+        <v>0.04313348529080797</v>
+      </c>
+      <c r="F55">
+        <v>-0.06571070839437392</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1507252163616948</v>
+        <v>-0.1454724987085494</v>
       </c>
       <c r="C56">
-        <v>0.08835962318755232</v>
+        <v>0.1053753932331283</v>
       </c>
       <c r="D56">
-        <v>0.040237867412832</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04858121585292442</v>
+      </c>
+      <c r="E56">
+        <v>0.04713403885813542</v>
+      </c>
+      <c r="F56">
+        <v>-0.05110294210698849</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.0006823820338441555</v>
+        <v>5.606460522641254e-07</v>
       </c>
       <c r="C57">
-        <v>0.003580928082870843</v>
+        <v>0.001981559195320556</v>
       </c>
       <c r="D57">
-        <v>-0.01923721495189285</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01608679254721214</v>
+      </c>
+      <c r="E57">
+        <v>0.007907668622959966</v>
+      </c>
+      <c r="F57">
+        <v>-0.01087240351706203</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07214826439335957</v>
+        <v>-0.02821424509524626</v>
       </c>
       <c r="C58">
-        <v>0.01862213696834912</v>
+        <v>0.04033755770904614</v>
       </c>
       <c r="D58">
-        <v>-0.9084834887562484</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4891249537132511</v>
+      </c>
+      <c r="E58">
+        <v>0.6909422424201559</v>
+      </c>
+      <c r="F58">
+        <v>0.4527909503052015</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1333189340310882</v>
+        <v>-0.1461684807016672</v>
       </c>
       <c r="C59">
-        <v>-0.2046283860042101</v>
+        <v>-0.1868299439986758</v>
       </c>
       <c r="D59">
-        <v>-0.01676355068497982</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03164170936931091</v>
+      </c>
+      <c r="E59">
+        <v>0.02565725171313956</v>
+      </c>
+      <c r="F59">
+        <v>-0.02211225532321491</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3121352730338208</v>
+        <v>-0.2833492904606575</v>
       </c>
       <c r="C60">
-        <v>0.09465429452031142</v>
+        <v>0.09788778895873609</v>
       </c>
       <c r="D60">
-        <v>-0.02918327547049149</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2027541437829005</v>
+      </c>
+      <c r="E60">
+        <v>-0.2727588726105552</v>
+      </c>
+      <c r="F60">
+        <v>0.1163491836322614</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.04059213527431284</v>
+        <v>-0.04033931086024885</v>
       </c>
       <c r="C61">
-        <v>0.06403019405522016</v>
+        <v>0.06210126975506776</v>
       </c>
       <c r="D61">
-        <v>-0.01115352089159638</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04632808581461316</v>
+      </c>
+      <c r="E61">
+        <v>0.02180474057880529</v>
+      </c>
+      <c r="F61">
+        <v>-0.08235630794710118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01524125313327936</v>
+        <v>-0.01513870300232966</v>
       </c>
       <c r="C63">
-        <v>0.03544825737457385</v>
+        <v>0.0324728340886002</v>
       </c>
       <c r="D63">
-        <v>0.002768988150035572</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02388094442221323</v>
+      </c>
+      <c r="E63">
+        <v>0.03709148366863609</v>
+      </c>
+      <c r="F63">
+        <v>-0.07754357575760894</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.05299152190243518</v>
+        <v>-0.05548405788161159</v>
       </c>
       <c r="C64">
-        <v>0.03766910848742645</v>
+        <v>0.05387125604439021</v>
       </c>
       <c r="D64">
-        <v>0.01024717201754883</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006552133305113779</v>
+      </c>
+      <c r="E64">
+        <v>0.01990788678900154</v>
+      </c>
+      <c r="F64">
+        <v>-0.08575759427945193</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09843414048100209</v>
+        <v>-0.06917391832444617</v>
       </c>
       <c r="C65">
-        <v>0.02782834076916789</v>
+        <v>0.03338695246461706</v>
       </c>
       <c r="D65">
-        <v>-0.03863378070225323</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08749089709417243</v>
+      </c>
+      <c r="E65">
+        <v>0.03030099477598946</v>
+      </c>
+      <c r="F65">
+        <v>-0.01905344987130055</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.06262751454397325</v>
+        <v>-0.05159297602028153</v>
       </c>
       <c r="C66">
-        <v>0.1019535196934529</v>
+        <v>0.09070601279470873</v>
       </c>
       <c r="D66">
-        <v>-0.0328553185170375</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08049180566375398</v>
+      </c>
+      <c r="E66">
+        <v>0.02090736708043368</v>
+      </c>
+      <c r="F66">
+        <v>-0.09388400924738614</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.04972414827397569</v>
+        <v>-0.04635409466908225</v>
       </c>
       <c r="C67">
-        <v>0.03357780128544822</v>
+        <v>0.03061525782422552</v>
       </c>
       <c r="D67">
-        <v>0.006758246894077257</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01205440623424814</v>
+      </c>
+      <c r="E67">
+        <v>0.01577754639210579</v>
+      </c>
+      <c r="F67">
+        <v>-0.05432097079472462</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1120666211967631</v>
+        <v>-0.151203235831503</v>
       </c>
       <c r="C68">
-        <v>-0.2908278217902047</v>
+        <v>-0.2522838542691584</v>
       </c>
       <c r="D68">
-        <v>0.003023568470260066</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01772364157366276</v>
+      </c>
+      <c r="E68">
+        <v>0.04244171851357518</v>
+      </c>
+      <c r="F68">
+        <v>-0.01907842596887121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08484102877055087</v>
+        <v>-0.08647970923001959</v>
       </c>
       <c r="C69">
-        <v>0.06751270577309414</v>
+        <v>0.08656854265789654</v>
       </c>
       <c r="D69">
-        <v>0.03810427081249491</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01162279069322661</v>
+      </c>
+      <c r="E69">
+        <v>0.03097946688403035</v>
+      </c>
+      <c r="F69">
+        <v>-0.09652170655967031</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.113620493844986</v>
+        <v>-0.1432681426799963</v>
       </c>
       <c r="C71">
-        <v>-0.252224179755146</v>
+        <v>-0.2333458640241819</v>
       </c>
       <c r="D71">
-        <v>-0.02407504813483581</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01604037082041021</v>
+      </c>
+      <c r="E71">
+        <v>0.06201118070268734</v>
+      </c>
+      <c r="F71">
+        <v>-0.05788897276072651</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.0856859396750934</v>
+        <v>-0.09593791477623695</v>
       </c>
       <c r="C72">
-        <v>0.04888230594195815</v>
+        <v>0.0571066976166018</v>
       </c>
       <c r="D72">
-        <v>0.009187488468831188</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02067600054008334</v>
+      </c>
+      <c r="E72">
+        <v>0.008590992953687673</v>
+      </c>
+      <c r="F72">
+        <v>-0.08122190981275089</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.447319667092553</v>
+        <v>-0.3476724584895093</v>
       </c>
       <c r="C73">
-        <v>0.06591436609336572</v>
+        <v>0.07679097653359243</v>
       </c>
       <c r="D73">
-        <v>-0.1351356678851239</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4319882937401654</v>
+      </c>
+      <c r="E73">
+        <v>-0.4838524948246749</v>
+      </c>
+      <c r="F73">
+        <v>0.2925853823500033</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1130501091430441</v>
+        <v>-0.1107496069842455</v>
       </c>
       <c r="C74">
-        <v>0.1047218491236397</v>
+        <v>0.1001280039155743</v>
       </c>
       <c r="D74">
-        <v>0.01366536119565354</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02882684245742476</v>
+      </c>
+      <c r="E74">
+        <v>0.06106494431115982</v>
+      </c>
+      <c r="F74">
+        <v>-0.05683626951410254</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2518170831264988</v>
+        <v>-0.256557042174324</v>
       </c>
       <c r="C75">
-        <v>0.108695282541995</v>
+        <v>0.1360523493012391</v>
       </c>
       <c r="D75">
-        <v>0.06148677339344097</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1278120980351418</v>
+      </c>
+      <c r="E75">
+        <v>0.0739697432139646</v>
+      </c>
+      <c r="F75">
+        <v>-0.01668909685541298</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1132577439479726</v>
+        <v>-0.1281048118575011</v>
       </c>
       <c r="C76">
-        <v>0.08733069139948253</v>
+        <v>0.1021745155673973</v>
       </c>
       <c r="D76">
-        <v>0.03289759743326848</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05753590675726262</v>
+      </c>
+      <c r="E76">
+        <v>0.06633294854427543</v>
+      </c>
+      <c r="F76">
+        <v>-0.07153927889975153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07730742271053727</v>
+        <v>-0.06203622546912286</v>
       </c>
       <c r="C77">
-        <v>0.05623567281621584</v>
+        <v>0.06914057067112959</v>
       </c>
       <c r="D77">
-        <v>-0.0520116440719194</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06534904112527826</v>
+      </c>
+      <c r="E77">
+        <v>0.0670190439892842</v>
+      </c>
+      <c r="F77">
+        <v>-0.1174803732386975</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04615477243973744</v>
+        <v>-0.04388631515810904</v>
       </c>
       <c r="C78">
-        <v>0.04364868347502816</v>
+        <v>0.05495633224236376</v>
       </c>
       <c r="D78">
-        <v>-0.01798397820217069</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07154390917856755</v>
+      </c>
+      <c r="E78">
+        <v>0.02153127332671862</v>
+      </c>
+      <c r="F78">
+        <v>-0.1041687294360896</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02502200533426562</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03800495911737708</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05913297074117251</v>
+      </c>
+      <c r="E79">
+        <v>0.05244595782137301</v>
+      </c>
+      <c r="F79">
+        <v>-0.04303779106205455</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04700986391710151</v>
+        <v>-0.03451356150267829</v>
       </c>
       <c r="C80">
-        <v>0.05605644068189001</v>
+        <v>0.05536047895085765</v>
       </c>
       <c r="D80">
-        <v>-0.02892618883747297</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04715934772063828</v>
+      </c>
+      <c r="E80">
+        <v>0.00942639469961618</v>
+      </c>
+      <c r="F80">
+        <v>-0.03644191491418954</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1426157202389534</v>
+        <v>-0.1401504862961171</v>
       </c>
       <c r="C81">
-        <v>0.06899980788002312</v>
+        <v>0.09667149867577994</v>
       </c>
       <c r="D81">
-        <v>0.03405391982184927</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09516781376232127</v>
+      </c>
+      <c r="E81">
+        <v>0.08158440745340872</v>
+      </c>
+      <c r="F81">
+        <v>-0.02155950791101099</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1402113548670644</v>
+        <v>-0.1991588505618923</v>
       </c>
       <c r="C82">
-        <v>0.05214896835724869</v>
+        <v>0.1369700061515537</v>
       </c>
       <c r="D82">
-        <v>0.1224195186404178</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2267230712594152</v>
+      </c>
+      <c r="E82">
+        <v>0.02059079498663497</v>
+      </c>
+      <c r="F82">
+        <v>-0.08566629552418488</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.02927619327882105</v>
+        <v>-0.02748004941917934</v>
       </c>
       <c r="C83">
-        <v>0.02210390734049889</v>
+        <v>0.04022654792751384</v>
       </c>
       <c r="D83">
-        <v>-0.02316294508565806</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03515757870491377</v>
+      </c>
+      <c r="E83">
+        <v>0.008870807913954009</v>
+      </c>
+      <c r="F83">
+        <v>-0.04975630613009151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2259316546199757</v>
+        <v>-0.2044198281702381</v>
       </c>
       <c r="C85">
-        <v>0.1017253495443166</v>
+        <v>0.1215723427407353</v>
       </c>
       <c r="D85">
-        <v>0.09979312111427235</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1023950547448962</v>
+      </c>
+      <c r="E85">
+        <v>0.004392181292106825</v>
+      </c>
+      <c r="F85">
+        <v>0.01684827710291215</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.009154934952064098</v>
+        <v>-0.01216382263845441</v>
       </c>
       <c r="C86">
-        <v>0.02999541566936177</v>
+        <v>0.02989083016551025</v>
       </c>
       <c r="D86">
-        <v>-0.0353709936934755</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07130255455913874</v>
+      </c>
+      <c r="E86">
+        <v>0.0417018125407009</v>
+      </c>
+      <c r="F86">
+        <v>-0.1369544800049207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.01792665459130249</v>
+        <v>-0.02113336425680295</v>
       </c>
       <c r="C87">
-        <v>0.01745353500460169</v>
+        <v>0.02155021694430381</v>
       </c>
       <c r="D87">
-        <v>-0.09215164234833678</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09311285837509409</v>
+      </c>
+      <c r="E87">
+        <v>0.08696525655911033</v>
+      </c>
+      <c r="F87">
+        <v>-0.09481421722432405</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1053018585739592</v>
+        <v>-0.09094087959114305</v>
       </c>
       <c r="C88">
-        <v>0.06745130809163263</v>
+        <v>0.06328939558473053</v>
       </c>
       <c r="D88">
-        <v>0.0211101279082954</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01133720370636764</v>
+      </c>
+      <c r="E88">
+        <v>0.03473352775129336</v>
+      </c>
+      <c r="F88">
+        <v>-0.07299052638008871</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.169897476262775</v>
+        <v>-0.2231480127135677</v>
       </c>
       <c r="C89">
-        <v>-0.380640104602401</v>
+        <v>-0.3800208750159639</v>
       </c>
       <c r="D89">
-        <v>0.02551799690575081</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01416797202909361</v>
+      </c>
+      <c r="E89">
+        <v>0.03825792769408153</v>
+      </c>
+      <c r="F89">
+        <v>-0.09573215190579018</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1683426477887786</v>
+        <v>-0.2019187202789124</v>
       </c>
       <c r="C90">
-        <v>-0.3510986648404442</v>
+        <v>-0.3154166972317272</v>
       </c>
       <c r="D90">
-        <v>0.01459685924984952</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.0125058499037057</v>
+      </c>
+      <c r="E90">
+        <v>0.06727623323331616</v>
+      </c>
+      <c r="F90">
+        <v>-0.04672798367864078</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1930922551186484</v>
+        <v>-0.1865781790917647</v>
       </c>
       <c r="C91">
-        <v>0.107749774623307</v>
+        <v>0.1397061215843423</v>
       </c>
       <c r="D91">
-        <v>0.0610737942031034</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1051817266316835</v>
+      </c>
+      <c r="E91">
+        <v>0.06481966697006948</v>
+      </c>
+      <c r="F91">
+        <v>-0.03738713853512332</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1645121608021876</v>
+        <v>-0.1816460467503647</v>
       </c>
       <c r="C92">
-        <v>-0.295616721799505</v>
+        <v>-0.2810094260068556</v>
       </c>
       <c r="D92">
-        <v>0.01422556260656068</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.001665385176694497</v>
+      </c>
+      <c r="E92">
+        <v>0.06824368450901035</v>
+      </c>
+      <c r="F92">
+        <v>-0.08187946031286419</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1944289894986909</v>
+        <v>-0.2256677090652379</v>
       </c>
       <c r="C93">
-        <v>-0.3402129163257688</v>
+        <v>-0.318989382359554</v>
       </c>
       <c r="D93">
-        <v>0.008596801983352486</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0004138755348008098</v>
+      </c>
+      <c r="E93">
+        <v>0.05144607683216943</v>
+      </c>
+      <c r="F93">
+        <v>-0.0443058147773842</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.3163217886383731</v>
+        <v>-0.3421446740981691</v>
       </c>
       <c r="C94">
-        <v>0.1506605397796109</v>
+        <v>0.1876764034708135</v>
       </c>
       <c r="D94">
-        <v>0.2411914928385018</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4749756835231363</v>
+      </c>
+      <c r="E94">
+        <v>0.1524550317651392</v>
+      </c>
+      <c r="F94">
+        <v>0.4452640954641471</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.09575451046208451</v>
+        <v>-0.08481008768078523</v>
       </c>
       <c r="C95">
-        <v>0.08372989766105352</v>
+        <v>0.0677175661465972</v>
       </c>
       <c r="D95">
-        <v>-0.06837700034308526</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1578600948927178</v>
+      </c>
+      <c r="E95">
+        <v>-0.1248511867601222</v>
+      </c>
+      <c r="F95">
+        <v>-0.1686304861469649</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1969029329758028</v>
+        <v>-0.1886211818306735</v>
       </c>
       <c r="C98">
-        <v>0.01760282290004997</v>
+        <v>0.0409259622570543</v>
       </c>
       <c r="D98">
-        <v>-0.06571530422117425</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1761977066992607</v>
+      </c>
+      <c r="E98">
+        <v>-0.1570412088515829</v>
+      </c>
+      <c r="F98">
+        <v>0.04401217007599221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.00803164636761392</v>
+        <v>-0.006028447224916539</v>
       </c>
       <c r="C101">
-        <v>0.02652754977728456</v>
+        <v>0.02680950873122211</v>
       </c>
       <c r="D101">
-        <v>0.01715901148864696</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02139956095022546</v>
+      </c>
+      <c r="E101">
+        <v>0.02919447366277683</v>
+      </c>
+      <c r="F101">
+        <v>-0.08958711079857806</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1242288939963163</v>
+        <v>-0.1243267973917056</v>
       </c>
       <c r="C102">
-        <v>0.07193613698926703</v>
+        <v>0.0996625805759087</v>
       </c>
       <c r="D102">
-        <v>0.03353424420990919</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05076692786691927</v>
+      </c>
+      <c r="E102">
+        <v>-0.007119636570062208</v>
+      </c>
+      <c r="F102">
+        <v>-0.04050356084193169</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
